--- a/3_work_examples-output/e_BXTP_BORO_eXcel_Table_(Manual)_Pipeline/b_load - Example - lump of clay - BXTP.xlsx
+++ b/3_work_examples-output/e_BXTP_BORO_eXcel_Table_(Manual)_Pipeline/b_load - Example - lump of clay - BXTP.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMi\oslo\oslo-development-examples\common\practical_examples\lump_of_clay\e_BXTP_BORO_eXcel_Table_(Manual)_Pipeline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OXi\PythonDev\c-fors-summer-school-boro\handouts\3_work_examples-output\e_BXTP_BORO_eXcel_Table_(Manual)_Pipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D12895A-1A66-42D0-8FC5-03E77AF6949D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5894881-EA4D-4473-9461-EAF2C7D0B78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="0" windowWidth="55230" windowHeight="20985" tabRatio="775" firstSheet="44" activeTab="52" xr2:uid="{11E0D73E-E1A0-450C-AD5A-A8595290F529}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="775" firstSheet="16" activeTab="4" xr2:uid="{11E0D73E-E1A0-450C-AD5A-A8595290F529}"/>
   </bookViews>
   <sheets>
     <sheet name="stages" sheetId="22" r:id="rId1"/>
     <sheet name="tables" sheetId="23" r:id="rId2"/>
     <sheet name="columns" sheetId="24" r:id="rId3"/>
     <sheet name="domain_model_additional_sets" sheetId="78" r:id="rId4"/>
-    <sheet name="domain_model_grounding-rela (2)" sheetId="81" r:id="rId5"/>
+    <sheet name="domain_model_grounding-relation" sheetId="81" r:id="rId5"/>
     <sheet name="domain_model_sub-super-sets" sheetId="80" r:id="rId6"/>
     <sheet name="top model stitching" sheetId="79" r:id="rId7"/>
     <sheet name="a_manual_bie_ids" sheetId="12" r:id="rId8"/>
@@ -11302,7 +11302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CB3A1B-AC95-4242-A127-178299D21DA3}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -11617,7 +11617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4934DF49-6B7C-401F-A9F5-86DBC91F589D}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
